--- a/Documentation/SCRUM_Backlogs.xlsx
+++ b/Documentation/SCRUM_Backlogs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A8D506B-FF92-4216-9DD5-E3E302C4F03D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214765E-FBBE-4B53-A1C4-B316DD2E57BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7764" yWindow="2976" windowWidth="15372" windowHeight="8280" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1620" yWindow="1080" windowWidth="17472" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
   <si>
     <t>ID</t>
   </si>
@@ -95,18 +95,9 @@
     <t>User can define and view profile page with profile picture and self description.</t>
   </si>
   <si>
-    <t>Extend database with fields for profile info</t>
-  </si>
-  <si>
     <t>Effort (hours)</t>
   </si>
   <si>
-    <t>Philipp Graf</t>
-  </si>
-  <si>
-    <t>Develop form to fill in profile data in HTML</t>
-  </si>
-  <si>
     <t>in process</t>
   </si>
   <si>
@@ -119,12 +110,6 @@
     <t>accepted</t>
   </si>
   <si>
-    <t>Anja Müller</t>
-  </si>
-  <si>
-    <t>Add form and logic for save / edit to application</t>
-  </si>
-  <si>
     <t>Improve user profile functionality</t>
   </si>
   <si>
@@ -189,6 +174,24 @@
   </si>
   <si>
     <t>Total:</t>
+  </si>
+  <si>
+    <t>Create website homepage design</t>
+  </si>
+  <si>
+    <t>Create website session page design</t>
+  </si>
+  <si>
+    <t>Front end can request a new session be created from the backend</t>
+  </si>
+  <si>
+    <t>Backend will create an owner user with a new session and return that information to the front end</t>
+  </si>
+  <si>
+    <t>Create a SPROC in the database to generate a random 4 character alphanumeric string and verify the string is unique.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Create a SPROC to handle the INSERT operation into both SessionUser and SessionRoom </t>
   </si>
 </sst>
 </file>
@@ -388,17 +391,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -408,13 +420,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -423,23 +441,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,7 +750,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -772,7 +775,7 @@
         <v>2</v>
       </c>
       <c r="D1" s="21" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E1" s="21"/>
       <c r="F1" s="21" t="s">
@@ -800,7 +803,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -817,7 +820,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -834,7 +837,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -851,7 +854,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -868,7 +871,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -885,7 +888,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -902,7 +905,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -919,7 +922,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -936,7 +939,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -953,7 +956,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -970,7 +973,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -987,7 +990,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -1004,7 +1007,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1021,7 +1024,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1038,7 +1041,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -1055,7 +1058,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1072,7 +1075,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -1089,7 +1092,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -1103,7 +1106,7 @@
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C22" s="2" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="D22" s="2">
         <f>SUM(D3:D21)</f>
@@ -1112,7 +1115,7 @@
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B28" s="8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
     </row>
   </sheetData>
@@ -1133,8 +1136,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1179,7 +1182,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1194,12 +1197,12 @@
       <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1211,23 +1214,23 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1240,18 +1243,18 @@
       <c r="E11" s="14"/>
       <c r="F11" s="12"/>
       <c r="G11" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1260,131 +1263,133 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="22" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="24" t="s">
-        <v>31</v>
+      <c r="G15" s="22" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>1</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>20</v>
+        <v>47</v>
       </c>
       <c r="C17" s="11">
         <v>1</v>
       </c>
-      <c r="D17" s="11">
-        <v>3</v>
-      </c>
-      <c r="E17" s="11">
-        <v>4.5</v>
-      </c>
-      <c r="F17" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="G17" s="2" t="s">
-        <v>22</v>
-      </c>
+      <c r="D17" s="11"/>
+      <c r="E17" s="11"/>
+      <c r="F17" s="11"/>
+      <c r="G17" s="2"/>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>2</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>23</v>
+        <v>48</v>
       </c>
       <c r="C18" s="11">
-        <v>1</v>
-      </c>
-      <c r="D18" s="11">
-        <v>6</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D18" s="11"/>
       <c r="E18" s="11"/>
-      <c r="F18" s="11" t="s">
-        <v>24</v>
-      </c>
-      <c r="G18" s="2" t="s">
-        <v>28</v>
-      </c>
+      <c r="F18" s="11"/>
+      <c r="G18" s="2"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>3</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C19" s="11">
-        <v>1</v>
-      </c>
-      <c r="D19" s="11">
-        <v>3</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="D19" s="11"/>
       <c r="E19" s="11"/>
-      <c r="F19" s="11" t="s">
-        <v>25</v>
-      </c>
+      <c r="F19" s="11"/>
       <c r="G19" s="2"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="11"/>
+      <c r="A20" s="3">
+        <v>4</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C20" s="11">
+        <v>2</v>
+      </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
       <c r="F20" s="11"/>
       <c r="G20" s="2"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21" s="3"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="11"/>
+      <c r="A21" s="3">
+        <v>5</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="11">
+        <v>2</v>
+      </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
       <c r="F21" s="11"/>
       <c r="G21" s="2"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22" s="3"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="11"/>
+      <c r="A22" s="3">
+        <v>6</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="11">
+        <v>2</v>
+      </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
       <c r="F22" s="11"/>
       <c r="G22" s="2"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23" s="3"/>
+      <c r="A23" s="3">
+        <v>7</v>
+      </c>
       <c r="B23" s="2"/>
       <c r="C23" s="11"/>
       <c r="D23" s="11"/>
@@ -1393,7 +1398,9 @@
       <c r="G23" s="2"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="3"/>
+      <c r="A24" s="3">
+        <v>8</v>
+      </c>
       <c r="B24" s="2"/>
       <c r="C24" s="11"/>
       <c r="D24" s="11"/>
@@ -1402,7 +1409,9 @@
       <c r="G24" s="2"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="3"/>
+      <c r="A25" s="3">
+        <v>9</v>
+      </c>
       <c r="B25" s="2"/>
       <c r="C25" s="11"/>
       <c r="D25" s="11"/>
@@ -1411,7 +1420,9 @@
       <c r="G25" s="2"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="3"/>
+      <c r="A26" s="3">
+        <v>10</v>
+      </c>
       <c r="B26" s="2"/>
       <c r="C26" s="11"/>
       <c r="D26" s="11"/>
@@ -1420,7 +1431,9 @@
       <c r="G26" s="2"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="3"/>
+      <c r="A27" s="3">
+        <v>11</v>
+      </c>
       <c r="B27" s="2"/>
       <c r="C27" s="11"/>
       <c r="D27" s="11"/>
@@ -1429,7 +1442,9 @@
       <c r="G27" s="2"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="3"/>
+      <c r="A28" s="3">
+        <v>12</v>
+      </c>
       <c r="B28" s="2"/>
       <c r="C28" s="11"/>
       <c r="D28" s="11"/>
@@ -1438,7 +1453,9 @@
       <c r="G28" s="2"/>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="3"/>
+      <c r="A29" s="3">
+        <v>13</v>
+      </c>
       <c r="B29" s="2"/>
       <c r="C29" s="11"/>
       <c r="D29" s="11"/>
@@ -1447,7 +1464,9 @@
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="3"/>
+      <c r="A30" s="3">
+        <v>14</v>
+      </c>
       <c r="B30" s="2"/>
       <c r="C30" s="11"/>
       <c r="D30" s="11"/>
@@ -1456,7 +1475,9 @@
       <c r="G30" s="2"/>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
+      <c r="A31" s="3">
+        <v>15</v>
+      </c>
       <c r="B31" s="2"/>
       <c r="C31" s="11"/>
       <c r="D31" s="11"/>
@@ -1465,7 +1486,9 @@
       <c r="G31" s="2"/>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="3"/>
+      <c r="A32" s="3">
+        <v>16</v>
+      </c>
       <c r="B32" s="2"/>
       <c r="C32" s="11"/>
       <c r="D32" s="11"/>
@@ -1474,7 +1497,9 @@
       <c r="G32" s="2"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33" s="3"/>
+      <c r="A33" s="3">
+        <v>17</v>
+      </c>
       <c r="B33" s="2"/>
       <c r="C33" s="11"/>
       <c r="D33" s="11"/>
@@ -1483,7 +1508,9 @@
       <c r="G33" s="2"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34" s="3"/>
+      <c r="A34" s="3">
+        <v>18</v>
+      </c>
       <c r="B34" s="2"/>
       <c r="C34" s="11"/>
       <c r="D34" s="11"/>
@@ -1492,7 +1519,9 @@
       <c r="G34" s="2"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
+      <c r="A35" s="3">
+        <v>19</v>
+      </c>
       <c r="B35" s="2"/>
       <c r="C35" s="11"/>
       <c r="D35" s="11"/>
@@ -1501,7 +1530,9 @@
       <c r="G35" s="2"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36" s="3"/>
+      <c r="A36" s="3">
+        <v>20</v>
+      </c>
       <c r="B36" s="2"/>
       <c r="C36" s="11"/>
       <c r="D36" s="11"/>
@@ -1510,7 +1541,9 @@
       <c r="G36" s="2"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
+      <c r="A37" s="3">
+        <v>21</v>
+      </c>
       <c r="B37" s="2"/>
       <c r="C37" s="11"/>
       <c r="D37" s="11"/>
@@ -1519,7 +1552,9 @@
       <c r="G37" s="2"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38" s="3"/>
+      <c r="A38" s="3">
+        <v>22</v>
+      </c>
       <c r="B38" s="2"/>
       <c r="C38" s="11"/>
       <c r="D38" s="11"/>
@@ -1583,16 +1618,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1660,12 +1695,12 @@
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1673,19 +1708,19 @@
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1700,10 +1735,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1712,38 +1747,38 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="36" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="34" t="s">
+      <c r="D15" s="39" t="s">
+        <v>20</v>
+      </c>
+      <c r="E15" s="39"/>
+      <c r="F15" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="34" t="s">
-        <v>26</v>
+      <c r="G15" s="32" t="s">
+        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -1999,16 +2034,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Documentation/SCRUM_Backlogs.xlsx
+++ b/Documentation/SCRUM_Backlogs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8214765E-FBBE-4B53-A1C4-B316DD2E57BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444B019-3BBA-470F-BC4C-330E0D8FFCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="1080" windowWidth="17472" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
   <si>
     <t>ID</t>
   </si>
@@ -191,7 +191,19 @@
     <t>Create a SPROC in the database to generate a random 4 character alphanumeric string and verify the string is unique.</t>
   </si>
   <si>
-    <t xml:space="preserve">Create a SPROC to handle the INSERT operation into both SessionUser and SessionRoom </t>
+    <t xml:space="preserve">Create a SPROC to handle the INSERT operation into both SessionUser and SessionRoom when creating a new session and also perform parameter validation. </t>
+  </si>
+  <si>
+    <t>Front end- User can attempt to join a session and front end will post that information to the backend.</t>
+  </si>
+  <si>
+    <t>Backend- Will insert the new user in the database and return the user's new ID</t>
+  </si>
+  <si>
+    <t>Database will insert the new user and return the new SessionUser ID</t>
+  </si>
+  <si>
+    <t>Whenever a session is joined or created the front-end switches to the session page</t>
   </si>
 </sst>
 </file>
@@ -391,11 +403,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -405,20 +432,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -426,6 +444,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -434,15 +455,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -750,7 +762,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
       <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
@@ -1136,8 +1148,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="C26" sqref="C26"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1197,12 +1209,12 @@
       <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="26" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="27"/>
+      <c r="E8" s="27"/>
+      <c r="F8" s="28"/>
       <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1214,12 +1226,12 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1227,10 +1239,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1249,10 +1261,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1263,38 +1275,38 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
+      <c r="A15" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="27" t="s">
+      <c r="B15" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="22" t="s">
+      <c r="C15" s="24" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="22" t="s">
+      <c r="F15" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="22" t="s">
+      <c r="G15" s="24" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="23"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="23"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -1334,7 +1346,7 @@
         <v>49</v>
       </c>
       <c r="C19" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1349,7 +1361,7 @@
         <v>50</v>
       </c>
       <c r="C20" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1364,7 +1376,7 @@
         <v>51</v>
       </c>
       <c r="C21" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" s="11"/>
       <c r="E21" s="11"/>
@@ -1379,7 +1391,7 @@
         <v>52</v>
       </c>
       <c r="C22" s="11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D22" s="11"/>
       <c r="E22" s="11"/>
@@ -1390,8 +1402,12 @@
       <c r="A23" s="3">
         <v>7</v>
       </c>
-      <c r="B23" s="2"/>
-      <c r="C23" s="11"/>
+      <c r="B23" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C23" s="11">
+        <v>3</v>
+      </c>
       <c r="D23" s="11"/>
       <c r="E23" s="11"/>
       <c r="F23" s="11"/>
@@ -1401,8 +1417,12 @@
       <c r="A24" s="3">
         <v>8</v>
       </c>
-      <c r="B24" s="2"/>
-      <c r="C24" s="11"/>
+      <c r="B24" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="C24" s="11">
+        <v>3</v>
+      </c>
       <c r="D24" s="11"/>
       <c r="E24" s="11"/>
       <c r="F24" s="11"/>
@@ -1412,8 +1432,12 @@
       <c r="A25" s="3">
         <v>9</v>
       </c>
-      <c r="B25" s="2"/>
-      <c r="C25" s="11"/>
+      <c r="B25" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="C25" s="11">
+        <v>3</v>
+      </c>
       <c r="D25" s="11"/>
       <c r="E25" s="11"/>
       <c r="F25" s="11"/>
@@ -1423,8 +1447,12 @@
       <c r="A26" s="3">
         <v>10</v>
       </c>
-      <c r="B26" s="2"/>
-      <c r="C26" s="11"/>
+      <c r="B26" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="C26" s="11">
+        <v>2</v>
+      </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
       <c r="F26" s="11"/>
@@ -1618,16 +1646,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="D15:E15"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="D15:E15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1695,12 +1723,12 @@
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="37" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="38"/>
+      <c r="E8" s="38"/>
+      <c r="F8" s="39"/>
       <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1708,19 +1736,19 @@
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1735,10 +1763,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1747,38 +1775,38 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="34" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="39" t="s">
+      <c r="D15" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="32" t="s">
+      <c r="E15" s="36"/>
+      <c r="F15" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="32" t="s">
+      <c r="G15" s="34" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="33"/>
+      <c r="A16" s="33"/>
+      <c r="B16" s="33"/>
+      <c r="C16" s="35"/>
       <c r="D16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="35"/>
+      <c r="G16" s="35"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -2034,16 +2062,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Documentation/SCRUM_Backlogs.xlsx
+++ b/Documentation/SCRUM_Backlogs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4444B019-3BBA-470F-BC4C-330E0D8FFCD3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB76DF-6ADF-4AC5-8EAC-64AD5DA42A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1620" yWindow="1080" windowWidth="17472" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
   <si>
     <t>ID</t>
   </si>
@@ -200,10 +200,58 @@
     <t>Backend- Will insert the new user in the database and return the user's new ID</t>
   </si>
   <si>
-    <t>Database will insert the new user and return the new SessionUser ID</t>
-  </si>
-  <si>
     <t>Whenever a session is joined or created the front-end switches to the session page</t>
+  </si>
+  <si>
+    <t>Database will insert the new user and return the new SessionUser ID and SessionServerID</t>
+  </si>
+  <si>
+    <t>Whenever a comment is posted it is validated on the frontend and then posted to the backend</t>
+  </si>
+  <si>
+    <t>The backend validates the comment and then inserts into the database</t>
+  </si>
+  <si>
+    <t>Create a SPROC or trigger to validate and then insert a message into the database</t>
+  </si>
+  <si>
+    <t>Create a SPROC to retreive all messages that belong to a specific session</t>
+  </si>
+  <si>
+    <t>Retreive all messages for a specific session from the database and then parse the results and send to the frontend</t>
+  </si>
+  <si>
+    <t>Take a JSON array of messages from the backend and display them for users on the frontend</t>
+  </si>
+  <si>
+    <t>Continuously and frequently retreive updated messages from the backend</t>
+  </si>
+  <si>
+    <t>Validate a reply and then send a query to the database to update the ReplyTo field</t>
+  </si>
+  <si>
+    <t>Handle a reply to a comment from a user and send it to the backend with all necessary information</t>
+  </si>
+  <si>
+    <t>Handle the Reply in the database using a trigger or SPROC if needed</t>
+  </si>
+  <si>
+    <t>User/Session Creation- Create methods for handling errors and exception received from the backend on the frontend</t>
+  </si>
+  <si>
+    <t>User/Session Creation- Create methods for handling errors and exceptions received from the database on the backend</t>
+  </si>
+  <si>
+    <t>User/Session Creation- Create error checking inside any SPROCs or Triggers in the database</t>
+  </si>
+  <si>
+    <t>Comment Posting- Create methods for handling errors and exception received from the backend on the frontend</t>
+  </si>
+  <si>
+    <t>Comment Posting- Create methods for handling errors and exceptions received from the database on the backend</t>
+  </si>
+  <si>
+    <t>Comment Posting- Create error checking inside any SPROCs or Triggers in the database</t>
   </si>
 </sst>
 </file>
@@ -255,7 +303,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -341,11 +389,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -403,17 +462,26 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -423,13 +491,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -438,22 +512,25 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -762,8 +839,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G28"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1146,17 +1223,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="45" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" style="10" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" style="10" customWidth="1"/>
@@ -1209,12 +1286,12 @@
       <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="29" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="27"/>
-      <c r="E8" s="27"/>
-      <c r="F8" s="28"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="31"/>
       <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
@@ -1226,12 +1303,12 @@
       <c r="B9" s="8" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="24" t="s">
         <v>19</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2" t="s">
         <v>21</v>
       </c>
@@ -1239,10 +1316,10 @@
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2" t="s">
         <v>17</v>
       </c>
@@ -1250,7 +1327,7 @@
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="41"/>
       <c r="D11" s="14"/>
       <c r="E11" s="14"/>
       <c r="F11" s="12"/>
@@ -1261,10 +1338,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="2" t="s">
         <v>24</v>
       </c>
@@ -1275,38 +1352,38 @@
       </c>
     </row>
     <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="22" t="s">
+      <c r="A15" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="22" t="s">
+      <c r="B15" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="42" t="s">
         <v>18</v>
       </c>
       <c r="D15" s="20" t="s">
         <v>20</v>
       </c>
       <c r="E15" s="20"/>
-      <c r="F15" s="24" t="s">
+      <c r="F15" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="24" t="s">
+      <c r="G15" s="22" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="23"/>
-      <c r="B16" s="23"/>
-      <c r="C16" s="25"/>
+      <c r="A16" s="28"/>
+      <c r="B16" s="28"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="19" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
+      <c r="F16" s="23"/>
+      <c r="G16" s="23"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
@@ -1315,7 +1392,7 @@
       <c r="B17" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="11">
+      <c r="C17" s="44">
         <v>1</v>
       </c>
       <c r="D17" s="11"/>
@@ -1330,7 +1407,7 @@
       <c r="B18" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="11">
+      <c r="C18" s="44">
         <v>2</v>
       </c>
       <c r="D18" s="11"/>
@@ -1345,7 +1422,7 @@
       <c r="B19" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C19" s="11">
+      <c r="C19" s="44">
         <v>3</v>
       </c>
       <c r="D19" s="11"/>
@@ -1360,7 +1437,7 @@
       <c r="B20" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="11">
+      <c r="C20" s="44">
         <v>3</v>
       </c>
       <c r="D20" s="11"/>
@@ -1375,7 +1452,7 @@
       <c r="B21" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="11">
+      <c r="C21" s="44">
         <v>3</v>
       </c>
       <c r="D21" s="11"/>
@@ -1390,7 +1467,7 @@
       <c r="B22" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="C22" s="11">
+      <c r="C22" s="44">
         <v>3</v>
       </c>
       <c r="D22" s="11"/>
@@ -1405,7 +1482,7 @@
       <c r="B23" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="C23" s="11">
+      <c r="C23" s="44">
         <v>3</v>
       </c>
       <c r="D23" s="11"/>
@@ -1420,7 +1497,7 @@
       <c r="B24" s="2" t="s">
         <v>54</v>
       </c>
-      <c r="C24" s="11">
+      <c r="C24" s="44">
         <v>3</v>
       </c>
       <c r="D24" s="11"/>
@@ -1433,9 +1510,9 @@
         <v>9</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C25" s="11">
+        <v>56</v>
+      </c>
+      <c r="C25" s="44">
         <v>3</v>
       </c>
       <c r="D25" s="11"/>
@@ -1448,9 +1525,9 @@
         <v>10</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="11">
+        <v>55</v>
+      </c>
+      <c r="C26" s="44">
         <v>2</v>
       </c>
       <c r="D26" s="11"/>
@@ -1462,8 +1539,12 @@
       <c r="A27" s="3">
         <v>11</v>
       </c>
-      <c r="B27" s="2"/>
-      <c r="C27" s="11"/>
+      <c r="B27" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C27" s="44">
+        <v>4</v>
+      </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
       <c r="F27" s="11"/>
@@ -1473,8 +1554,12 @@
       <c r="A28" s="3">
         <v>12</v>
       </c>
-      <c r="B28" s="2"/>
-      <c r="C28" s="11"/>
+      <c r="B28" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C28" s="44">
+        <v>4</v>
+      </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
       <c r="F28" s="11"/>
@@ -1484,8 +1569,12 @@
       <c r="A29" s="3">
         <v>13</v>
       </c>
-      <c r="B29" s="2"/>
-      <c r="C29" s="11"/>
+      <c r="B29" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="44">
+        <v>4</v>
+      </c>
       <c r="D29" s="11"/>
       <c r="E29" s="11"/>
       <c r="F29" s="11"/>
@@ -1495,8 +1584,12 @@
       <c r="A30" s="3">
         <v>14</v>
       </c>
-      <c r="B30" s="2"/>
-      <c r="C30" s="11"/>
+      <c r="B30" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="C30" s="44">
+        <v>6</v>
+      </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
       <c r="F30" s="11"/>
@@ -1506,8 +1599,12 @@
       <c r="A31" s="3">
         <v>15</v>
       </c>
-      <c r="B31" s="2"/>
-      <c r="C31" s="11"/>
+      <c r="B31" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="44">
+        <v>5</v>
+      </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
       <c r="F31" s="11"/>
@@ -1517,8 +1614,12 @@
       <c r="A32" s="3">
         <v>16</v>
       </c>
-      <c r="B32" s="2"/>
-      <c r="C32" s="11"/>
+      <c r="B32" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C32" s="44">
+        <v>5</v>
+      </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
       <c r="F32" s="11"/>
@@ -1528,8 +1629,12 @@
       <c r="A33" s="3">
         <v>17</v>
       </c>
-      <c r="B33" s="2"/>
-      <c r="C33" s="11"/>
+      <c r="B33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C33" s="44">
+        <v>5</v>
+      </c>
       <c r="D33" s="11"/>
       <c r="E33" s="11"/>
       <c r="F33" s="11"/>
@@ -1539,8 +1644,12 @@
       <c r="A34" s="3">
         <v>18</v>
       </c>
-      <c r="B34" s="2"/>
-      <c r="C34" s="11"/>
+      <c r="B34" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="C34" s="44">
+        <v>6</v>
+      </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
       <c r="F34" s="11"/>
@@ -1550,8 +1659,12 @@
       <c r="A35" s="3">
         <v>19</v>
       </c>
-      <c r="B35" s="2"/>
-      <c r="C35" s="11"/>
+      <c r="B35" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C35" s="44">
+        <v>6</v>
+      </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
       <c r="F35" s="11"/>
@@ -1561,8 +1674,12 @@
       <c r="A36" s="3">
         <v>20</v>
       </c>
-      <c r="B36" s="2"/>
-      <c r="C36" s="11"/>
+      <c r="B36" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="C36" s="44">
+        <v>6</v>
+      </c>
       <c r="D36" s="11"/>
       <c r="E36" s="11"/>
       <c r="F36" s="11"/>
@@ -1572,8 +1689,12 @@
       <c r="A37" s="3">
         <v>21</v>
       </c>
-      <c r="B37" s="2"/>
-      <c r="C37" s="11"/>
+      <c r="B37" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C37" s="44">
+        <v>3</v>
+      </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
       <c r="F37" s="11"/>
@@ -1583,79 +1704,147 @@
       <c r="A38" s="3">
         <v>22</v>
       </c>
-      <c r="B38" s="2"/>
-      <c r="C38" s="11"/>
+      <c r="B38" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="C38" s="44">
+        <v>3</v>
+      </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
       <c r="F38" s="11"/>
       <c r="G38" s="2"/>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39" s="3"/>
-      <c r="B39" s="2"/>
-      <c r="C39" s="11"/>
+      <c r="A39" s="3">
+        <v>23</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="44">
+        <v>3</v>
+      </c>
       <c r="D39" s="11"/>
       <c r="E39" s="11"/>
       <c r="F39" s="11"/>
       <c r="G39" s="2"/>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40" s="3"/>
-      <c r="B40" s="2"/>
-      <c r="C40" s="11"/>
+      <c r="A40" s="3">
+        <v>24</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="C40" s="45">
+        <v>4</v>
+      </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
       <c r="F40" s="11"/>
       <c r="G40" s="2"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41" s="3"/>
-      <c r="B41" s="2"/>
-      <c r="C41" s="11"/>
+      <c r="A41" s="3">
+        <v>25</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="C41" s="45">
+        <v>4</v>
+      </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
       <c r="F41" s="11"/>
       <c r="G41" s="2"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="2"/>
-      <c r="C42" s="11"/>
+      <c r="A42" s="3">
+        <v>26</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="C42" s="45">
+        <v>4</v>
+      </c>
       <c r="D42" s="11"/>
       <c r="E42" s="11"/>
       <c r="F42" s="11"/>
       <c r="G42" s="2"/>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
+      <c r="A43" s="3">
+        <v>27</v>
+      </c>
       <c r="B43" s="2"/>
-      <c r="C43" s="11"/>
+      <c r="C43" s="44"/>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
       <c r="G43" s="2"/>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
+      <c r="A44" s="3">
+        <v>28</v>
+      </c>
       <c r="B44" s="2"/>
-      <c r="C44" s="11"/>
+      <c r="C44" s="44"/>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="2"/>
     </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45" s="40"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46" s="40"/>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47" s="40"/>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48" s="40"/>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="40"/>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="40"/>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="40"/>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="40"/>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="40"/>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="40"/>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="40"/>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="40"/>
+    </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="D15:E15"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1723,12 +1912,12 @@
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="37" t="s">
+      <c r="C8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="38"/>
-      <c r="E8" s="38"/>
-      <c r="F8" s="39"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1736,19 +1925,19 @@
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="26"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="26"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1763,10 +1952,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="24"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="26"/>
       <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1775,38 +1964,38 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="34" t="s">
+      <c r="C15" s="32" t="s">
         <v>18</v>
       </c>
-      <c r="D15" s="36" t="s">
+      <c r="D15" s="39" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="36"/>
-      <c r="F15" s="34" t="s">
+      <c r="E15" s="39"/>
+      <c r="F15" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="34" t="s">
+      <c r="G15" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="33"/>
-      <c r="B16" s="33"/>
-      <c r="C16" s="35"/>
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
+      <c r="C16" s="33"/>
       <c r="D16" s="16" t="s">
         <v>16</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="35"/>
-      <c r="G16" s="35"/>
+      <c r="F16" s="33"/>
+      <c r="G16" s="33"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -2062,16 +2251,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Documentation/SCRUM_Backlogs.xlsx
+++ b/Documentation/SCRUM_Backlogs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AEBB76DF-6ADF-4AC5-8EAC-64AD5DA42A89}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E6243-8BDF-442E-A308-15B68A786DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1620" yWindow="1080" windowWidth="17472" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1968" yWindow="1428" windowWidth="17472" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
   <si>
     <t>ID</t>
   </si>
@@ -80,36 +80,18 @@
     <t>Sprint Backlog (Tasks)</t>
   </si>
   <si>
-    <t>As a registered user I want to set-up a personal profile page to present myself.</t>
-  </si>
-  <si>
     <t>estimated</t>
   </si>
   <si>
-    <t>done</t>
-  </si>
-  <si>
     <t>User Story ID</t>
   </si>
   <si>
-    <t>User can define and view profile page with profile picture and self description.</t>
-  </si>
-  <si>
     <t>Effort (hours)</t>
   </si>
   <si>
-    <t>in process</t>
-  </si>
-  <si>
-    <t>to do</t>
-  </si>
-  <si>
     <t>Persons</t>
   </si>
   <si>
-    <t>accepted</t>
-  </si>
-  <si>
     <t>Improve user profile functionality</t>
   </si>
   <si>
@@ -252,6 +234,36 @@
   </si>
   <si>
     <t>Comment Posting- Create error checking inside any SPROCs or Triggers in the database</t>
+  </si>
+  <si>
+    <t>By visiting localhost:8080 the website should be displayed. The website should be pleasing to the eye and have no glaring issues.</t>
+  </si>
+  <si>
+    <t>By successfully joining or creating a session a user should be automatically redirected to the session page. The page should be pleasing to the eyes and have no glaring issues.</t>
+  </si>
+  <si>
+    <t>A user will be correctly indentified as a member or a session owner and the session page HTML and layout will change based on the user type.</t>
+  </si>
+  <si>
+    <t>In progress</t>
+  </si>
+  <si>
+    <t>Users will be able to post comments and have them appear on the page at least locally. Comments will persist even if the page is refreshed.</t>
+  </si>
+  <si>
+    <t>Users will see there comment under the comment of another user and formatted in a way that distinguishes it from a regular non-reply comment. The reply will persist after page refresh even if it's just local.</t>
+  </si>
+  <si>
+    <t>Planned</t>
+  </si>
+  <si>
+    <t>Users will be able to see other users comments formatted onto the page. The comments will be in the order that they we posted and new comments will be displayed on the page without having to manually refresh the page.</t>
+  </si>
+  <si>
+    <t>A user can like a message</t>
+  </si>
+  <si>
+    <t>In Progress</t>
   </si>
 </sst>
 </file>
@@ -404,7 +416,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -455,6 +467,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -462,11 +483,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -476,20 +518,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -497,6 +530,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -506,32 +542,20 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -837,10 +861,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -849,50 +873,50 @@
     <col min="2" max="2" width="74.109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="5" width="11.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="2"/>
+    <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="21" t="s">
+      <c r="A1" s="24" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="20" t="s">
+      <c r="B1" s="23" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="21" t="s">
+      <c r="C1" s="24" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="21" t="s">
-        <v>20</v>
-      </c>
-      <c r="E1" s="21"/>
-      <c r="F1" s="21" t="s">
+      <c r="D1" s="24" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="20" t="s">
+      <c r="G1" s="23" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="21"/>
-      <c r="B2" s="20"/>
-      <c r="C2" s="21"/>
+      <c r="A2" s="24"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="24"/>
       <c r="D2" s="17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="21"/>
-      <c r="G2" s="20"/>
+      <c r="F2" s="24"/>
+      <c r="G2" s="23"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="8" t="s">
-        <v>28</v>
+        <v>22</v>
       </c>
       <c r="C3" s="2">
         <v>1</v>
@@ -901,7 +925,7 @@
         <v>150</v>
       </c>
       <c r="F3" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
@@ -909,7 +933,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C4" s="2">
         <v>1</v>
@@ -918,7 +942,7 @@
         <v>75</v>
       </c>
       <c r="F4" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
@@ -926,7 +950,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="8" t="s">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="C5" s="2">
         <v>1</v>
@@ -935,7 +959,7 @@
         <v>15</v>
       </c>
       <c r="F5" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
@@ -943,7 +967,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="8" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="C6" s="2">
         <v>1</v>
@@ -952,7 +976,7 @@
         <v>40</v>
       </c>
       <c r="F6" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -960,7 +984,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="8" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2">
         <v>2</v>
@@ -969,7 +993,7 @@
         <v>15</v>
       </c>
       <c r="F7" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
@@ -977,7 +1001,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="8" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C8" s="2">
         <v>1</v>
@@ -986,7 +1010,7 @@
         <v>75</v>
       </c>
       <c r="F8" s="2" t="s">
-        <v>5</v>
+        <v>76</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
@@ -994,7 +1018,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="8" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C9" s="2">
         <v>2</v>
@@ -1011,7 +1035,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="8" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C10" s="2">
         <v>2</v>
@@ -1028,7 +1052,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="C11" s="2">
         <v>2</v>
@@ -1045,7 +1069,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="8" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C12" s="2">
         <v>2</v>
@@ -1062,7 +1086,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="8" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C13" s="2">
         <v>2</v>
@@ -1079,7 +1103,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="8" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="C14" s="2">
         <v>3</v>
@@ -1096,7 +1120,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="8" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="C15" s="2">
         <v>1</v>
@@ -1113,7 +1137,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="8" t="s">
-        <v>39</v>
+        <v>33</v>
       </c>
       <c r="C16" s="2">
         <v>1</v>
@@ -1130,7 +1154,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="8" t="s">
-        <v>40</v>
+        <v>34</v>
       </c>
       <c r="C17" s="2">
         <v>1</v>
@@ -1147,7 +1171,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="8" t="s">
-        <v>41</v>
+        <v>35</v>
       </c>
       <c r="C18" s="2">
         <v>1</v>
@@ -1164,7 +1188,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="8" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="C19" s="2">
         <v>3</v>
@@ -1181,7 +1205,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="8" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="C20" s="2">
         <v>3</v>
@@ -1193,18 +1217,35 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="C22" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="D22" s="2">
-        <f>SUM(D3:D21)</f>
-        <v>702</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B28" s="8" t="s">
-        <v>27</v>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>19</v>
+      </c>
+      <c r="B21" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="C21" s="2">
+        <v>3</v>
+      </c>
+      <c r="D21" s="2">
+        <v>4</v>
+      </c>
+      <c r="F21" s="2" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C23" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D23" s="2">
+        <f>SUM(D3:D22)</f>
+        <v>706</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="8" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -1223,17 +1264,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G56"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="45" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="22" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" style="10" customWidth="1"/>
     <col min="6" max="6" width="17.44140625" style="10" customWidth="1"/>
@@ -1271,7 +1312,7 @@
         <v>10</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>25</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
@@ -1286,144 +1327,175 @@
       <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="29" t="s">
+      <c r="C8" s="31" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="31"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="33"/>
       <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="9">
+      <c r="A9" s="45">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" s="34" t="s">
+        <v>67</v>
+      </c>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
+      <c r="G9" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="45">
+        <v>2</v>
+      </c>
+      <c r="B10" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" s="34" t="s">
+        <v>68</v>
+      </c>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="45">
+        <v>3</v>
+      </c>
+      <c r="B11" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="45">
+        <v>4</v>
+      </c>
+      <c r="B12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="46" t="s">
+        <v>71</v>
+      </c>
+      <c r="D12" s="47"/>
+      <c r="E12" s="47"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="2" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="45">
+        <v>5</v>
+      </c>
+      <c r="B13" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="46" t="s">
+        <v>72</v>
+      </c>
+      <c r="D13" s="47"/>
+      <c r="E13" s="47"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="45">
+        <v>5</v>
+      </c>
+      <c r="B14" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="C14" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="35"/>
+      <c r="E14" s="35"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="49"/>
+    </row>
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="B16"/>
+      <c r="C16" s="22"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16"/>
+    </row>
+    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
+        <v>0</v>
+      </c>
+      <c r="B17" s="25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="D17" s="23" t="s">
+        <v>17</v>
+      </c>
+      <c r="E17" s="23"/>
+      <c r="F17" s="29" t="s">
+        <v>3</v>
+      </c>
+      <c r="G17" s="29" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18" s="26"/>
+      <c r="B18" s="26"/>
+      <c r="C18" s="28"/>
+      <c r="D18" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="24" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="2" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="2" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="14"/>
-      <c r="E11" s="14"/>
-      <c r="F11" s="12"/>
-      <c r="G11" s="2" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14" s="5" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="27" t="s">
-        <v>0</v>
-      </c>
-      <c r="B15" s="27" t="s">
-        <v>1</v>
-      </c>
-      <c r="C15" s="42" t="s">
-        <v>18</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="20"/>
-      <c r="F15" s="22" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="22" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="28"/>
-      <c r="B16" s="28"/>
-      <c r="C16" s="43"/>
-      <c r="D16" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="E16" s="19" t="s">
+      <c r="E18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>1</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C17" s="44">
-        <v>1</v>
-      </c>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="2"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>2</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>48</v>
-      </c>
-      <c r="C18" s="44">
-        <v>2</v>
-      </c>
-      <c r="D18" s="11"/>
-      <c r="E18" s="11"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="2"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C19" s="44">
-        <v>3</v>
+        <v>41</v>
+      </c>
+      <c r="C19" s="21">
+        <v>1</v>
       </c>
       <c r="D19" s="11"/>
       <c r="E19" s="11"/>
@@ -1432,13 +1504,13 @@
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="C20" s="44">
-        <v>3</v>
+        <v>42</v>
+      </c>
+      <c r="C20" s="21">
+        <v>2</v>
       </c>
       <c r="D20" s="11"/>
       <c r="E20" s="11"/>
@@ -1447,12 +1519,12 @@
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="C21" s="44">
+        <v>43</v>
+      </c>
+      <c r="C21" s="21">
         <v>3</v>
       </c>
       <c r="D21" s="11"/>
@@ -1462,12 +1534,12 @@
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="44">
+        <v>44</v>
+      </c>
+      <c r="C22" s="21">
         <v>3</v>
       </c>
       <c r="D22" s="11"/>
@@ -1477,12 +1549,12 @@
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="44">
+        <v>45</v>
+      </c>
+      <c r="C23" s="21">
         <v>3</v>
       </c>
       <c r="D23" s="11"/>
@@ -1492,12 +1564,12 @@
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="44">
+        <v>46</v>
+      </c>
+      <c r="C24" s="21">
         <v>3</v>
       </c>
       <c r="D24" s="11"/>
@@ -1507,12 +1579,12 @@
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="44">
+        <v>47</v>
+      </c>
+      <c r="C25" s="21">
         <v>3</v>
       </c>
       <c r="D25" s="11"/>
@@ -1522,13 +1594,13 @@
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>55</v>
-      </c>
-      <c r="C26" s="44">
-        <v>2</v>
+        <v>48</v>
+      </c>
+      <c r="C26" s="21">
+        <v>3</v>
       </c>
       <c r="D26" s="11"/>
       <c r="E26" s="11"/>
@@ -1537,13 +1609,13 @@
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="C27" s="44">
-        <v>4</v>
+        <v>50</v>
+      </c>
+      <c r="C27" s="21">
+        <v>3</v>
       </c>
       <c r="D27" s="11"/>
       <c r="E27" s="11"/>
@@ -1552,13 +1624,13 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="C28" s="44">
-        <v>4</v>
+        <v>49</v>
+      </c>
+      <c r="C28" s="21">
+        <v>2</v>
       </c>
       <c r="D28" s="11"/>
       <c r="E28" s="11"/>
@@ -1567,12 +1639,12 @@
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C29" s="44">
+        <v>51</v>
+      </c>
+      <c r="C29" s="21">
         <v>4</v>
       </c>
       <c r="D29" s="11"/>
@@ -1582,13 +1654,13 @@
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="C30" s="44">
-        <v>6</v>
+        <v>52</v>
+      </c>
+      <c r="C30" s="21">
+        <v>4</v>
       </c>
       <c r="D30" s="11"/>
       <c r="E30" s="11"/>
@@ -1597,13 +1669,13 @@
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="C31" s="44">
-        <v>5</v>
+        <v>53</v>
+      </c>
+      <c r="C31" s="21">
+        <v>4</v>
       </c>
       <c r="D31" s="11"/>
       <c r="E31" s="11"/>
@@ -1612,13 +1684,13 @@
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="C32" s="44">
-        <v>5</v>
+        <v>54</v>
+      </c>
+      <c r="C32" s="21">
+        <v>6</v>
       </c>
       <c r="D32" s="11"/>
       <c r="E32" s="11"/>
@@ -1627,12 +1699,12 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="C33" s="44">
+        <v>59</v>
+      </c>
+      <c r="C33" s="21">
         <v>5</v>
       </c>
       <c r="D33" s="11"/>
@@ -1642,13 +1714,13 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="C34" s="44">
-        <v>6</v>
+        <v>58</v>
+      </c>
+      <c r="C34" s="21">
+        <v>5</v>
       </c>
       <c r="D34" s="11"/>
       <c r="E34" s="11"/>
@@ -1657,13 +1729,13 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="C35" s="44">
-        <v>6</v>
+        <v>60</v>
+      </c>
+      <c r="C35" s="21">
+        <v>5</v>
       </c>
       <c r="D35" s="11"/>
       <c r="E35" s="11"/>
@@ -1672,12 +1744,12 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="C36" s="44">
+        <v>55</v>
+      </c>
+      <c r="C36" s="21">
         <v>6</v>
       </c>
       <c r="D36" s="11"/>
@@ -1687,13 +1759,13 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="C37" s="44">
-        <v>3</v>
+        <v>56</v>
+      </c>
+      <c r="C37" s="21">
+        <v>6</v>
       </c>
       <c r="D37" s="11"/>
       <c r="E37" s="11"/>
@@ -1702,13 +1774,13 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C38" s="44">
-        <v>3</v>
+        <v>57</v>
+      </c>
+      <c r="C38" s="21">
+        <v>6</v>
       </c>
       <c r="D38" s="11"/>
       <c r="E38" s="11"/>
@@ -1717,12 +1789,12 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="C39" s="44">
+        <v>61</v>
+      </c>
+      <c r="C39" s="21">
         <v>3</v>
       </c>
       <c r="D39" s="11"/>
@@ -1732,13 +1804,13 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="C40" s="45">
-        <v>4</v>
+        <v>62</v>
+      </c>
+      <c r="C40" s="21">
+        <v>3</v>
       </c>
       <c r="D40" s="11"/>
       <c r="E40" s="11"/>
@@ -1747,13 +1819,13 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="C41" s="45">
-        <v>4</v>
+        <v>63</v>
+      </c>
+      <c r="C41" s="21">
+        <v>3</v>
       </c>
       <c r="D41" s="11"/>
       <c r="E41" s="11"/>
@@ -1762,12 +1834,12 @@
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="C42" s="45">
+        <v>64</v>
+      </c>
+      <c r="C42" s="22">
         <v>4</v>
       </c>
       <c r="D42" s="11"/>
@@ -1777,10 +1849,14 @@
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
-        <v>27</v>
-      </c>
-      <c r="B43" s="2"/>
-      <c r="C43" s="44"/>
+        <v>25</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="C43" s="22">
+        <v>4</v>
+      </c>
       <c r="D43" s="11"/>
       <c r="E43" s="11"/>
       <c r="F43" s="11"/>
@@ -1788,63 +1864,92 @@
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
-        <v>28</v>
-      </c>
-      <c r="B44" s="2"/>
-      <c r="C44" s="44"/>
+        <v>26</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C44" s="22">
+        <v>4</v>
+      </c>
       <c r="D44" s="11"/>
       <c r="E44" s="11"/>
       <c r="F44" s="11"/>
       <c r="G44" s="2"/>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45" s="40"/>
+      <c r="A45" s="3">
+        <v>27</v>
+      </c>
+      <c r="B45" s="2"/>
+      <c r="C45" s="21"/>
+      <c r="D45" s="11"/>
+      <c r="E45" s="11"/>
+      <c r="F45" s="11"/>
+      <c r="G45" s="2"/>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46" s="40"/>
+      <c r="A46" s="3">
+        <v>28</v>
+      </c>
+      <c r="B46" s="2"/>
+      <c r="C46" s="21"/>
+      <c r="D46" s="11"/>
+      <c r="E46" s="11"/>
+      <c r="F46" s="11"/>
+      <c r="G46" s="2"/>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47" s="40"/>
+      <c r="A47" s="20"/>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48" s="40"/>
+      <c r="A48" s="20"/>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="40"/>
+      <c r="A49" s="20"/>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="40"/>
+      <c r="A50" s="20"/>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A51" s="40"/>
+      <c r="A51" s="20"/>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A52" s="40"/>
+      <c r="A52" s="20"/>
     </row>
     <row r="53" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A53" s="40"/>
+      <c r="A53" s="20"/>
     </row>
     <row r="54" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A54" s="40"/>
+      <c r="A54" s="20"/>
     </row>
     <row r="55" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A55" s="40"/>
+      <c r="A55" s="20"/>
     </row>
     <row r="56" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A56" s="40"/>
+      <c r="A56" s="20"/>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="20"/>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="20"/>
     </row>
   </sheetData>
-  <mergeCells count="10">
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="G15:G16"/>
+  <mergeCells count="13">
+    <mergeCell ref="G17:G18"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -1912,12 +2017,12 @@
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="34" t="s">
+      <c r="C8" s="42" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="35"/>
-      <c r="E8" s="35"/>
-      <c r="F8" s="36"/>
+      <c r="D8" s="43"/>
+      <c r="E8" s="43"/>
+      <c r="F8" s="44"/>
       <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
@@ -1925,19 +2030,19 @@
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="24"/>
-      <c r="D9" s="25"/>
-      <c r="E9" s="25"/>
-      <c r="F9" s="26"/>
+      <c r="C9" s="34"/>
+      <c r="D9" s="35"/>
+      <c r="E9" s="35"/>
+      <c r="F9" s="36"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="24"/>
-      <c r="D10" s="25"/>
-      <c r="E10" s="25"/>
-      <c r="F10" s="26"/>
+      <c r="C10" s="34"/>
+      <c r="D10" s="35"/>
+      <c r="E10" s="35"/>
+      <c r="F10" s="36"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -1952,10 +2057,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="24"/>
-      <c r="D12" s="25"/>
-      <c r="E12" s="25"/>
-      <c r="F12" s="26"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="35"/>
+      <c r="E12" s="35"/>
+      <c r="F12" s="36"/>
       <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -1970,32 +2075,32 @@
       <c r="B15" s="37" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="39" t="s">
+        <v>16</v>
+      </c>
+      <c r="D15" s="41" t="s">
+        <v>17</v>
+      </c>
+      <c r="E15" s="41"/>
+      <c r="F15" s="39" t="s">
+        <v>3</v>
+      </c>
+      <c r="G15" s="39" t="s">
         <v>18</v>
-      </c>
-      <c r="D15" s="39" t="s">
-        <v>20</v>
-      </c>
-      <c r="E15" s="39"/>
-      <c r="F15" s="32" t="s">
-        <v>3</v>
-      </c>
-      <c r="G15" s="32" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="38"/>
       <c r="B16" s="38"/>
-      <c r="C16" s="33"/>
+      <c r="C16" s="40"/>
       <c r="D16" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="33"/>
-      <c r="G16" s="33"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -2251,16 +2356,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Documentation/SCRUM_Backlogs.xlsx
+++ b/Documentation/SCRUM_Backlogs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{746E6243-8BDF-442E-A308-15B68A786DF2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737E3854-58A9-4AA7-B33F-FD5F33D59858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1968" yWindow="1428" windowWidth="17472" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="130" uniqueCount="77">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
   <si>
     <t>ID</t>
   </si>
@@ -264,6 +264,60 @@
   </si>
   <si>
     <t>In Progress</t>
+  </si>
+  <si>
+    <t>Ammar-Darwich</t>
+  </si>
+  <si>
+    <t>Haticetin</t>
+  </si>
+  <si>
+    <t>honeytomar200 (Shammi Singh)</t>
+  </si>
+  <si>
+    <t>jamous01</t>
+  </si>
+  <si>
+    <t>MihaiNico</t>
+  </si>
+  <si>
+    <t>Lucabesana97</t>
+  </si>
+  <si>
+    <t>leafcathead (Connor Peper)</t>
+  </si>
+  <si>
+    <t>mucet95</t>
+  </si>
+  <si>
+    <t>sameerkashif234</t>
+  </si>
+  <si>
+    <t>jamous01, mucet95</t>
+  </si>
+  <si>
+    <t>Shammi Singh</t>
+  </si>
+  <si>
+    <t>leafcathead (Connor Peper), Ammar-Darwich</t>
+  </si>
+  <si>
+    <t>sameerkashif234, Ammar-Darwich</t>
+  </si>
+  <si>
+    <t>Completed</t>
+  </si>
+  <si>
+    <t>sameerkashif234, jamous01, mucet95</t>
+  </si>
+  <si>
+    <t>MihaiNico, Lucabesana97</t>
+  </si>
+  <si>
+    <t>leafcathead (Connor Peper), Ammar-Darwich, MihaiNico, Lucabesana97</t>
+  </si>
+  <si>
+    <t>Git Users</t>
   </si>
 </sst>
 </file>
@@ -476,6 +530,12 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -483,6 +543,30 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,12 +578,6 @@
     <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -509,13 +587,19 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -524,38 +608,8 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -863,8 +917,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G29"/>
   <sheetViews>
-    <sheetView zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+    <sheetView topLeftCell="A4" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -878,38 +932,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="23" t="s">
+      <c r="B1" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="24" t="s">
+      <c r="C1" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="24" t="s">
+      <c r="D1" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24" t="s">
+      <c r="E1" s="26"/>
+      <c r="F1" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="23" t="s">
+      <c r="G1" s="25" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="24"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="24"/>
+      <c r="A2" s="26"/>
+      <c r="B2" s="25"/>
+      <c r="C2" s="26"/>
       <c r="D2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="23"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="25"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
@@ -1264,16 +1318,16 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G58"/>
+  <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="82" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
-    <col min="2" max="2" width="50.33203125" customWidth="1"/>
+    <col min="2" max="2" width="132.33203125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="13.88671875" style="22" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
     <col min="5" max="5" width="14.88671875" style="10" customWidth="1"/>
@@ -1327,120 +1381,120 @@
       <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="31" t="s">
+      <c r="C8" s="39" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="33"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="41"/>
       <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="45">
+      <c r="A9" s="23">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="29" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="45">
+      <c r="A10" s="23">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="34" t="s">
+      <c r="C10" s="29" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="45">
+      <c r="A11" s="23">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="46" t="s">
+      <c r="C11" s="32" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="47"/>
-      <c r="E11" s="47"/>
-      <c r="F11" s="48"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="45">
+      <c r="A12" s="23">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="46" t="s">
+      <c r="C12" s="32" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="47"/>
-      <c r="E12" s="47"/>
-      <c r="F12" s="48"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="45">
+      <c r="A13" s="23">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="46" t="s">
+      <c r="C13" s="32" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="47"/>
-      <c r="E13" s="47"/>
-      <c r="F13" s="48"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="45">
-        <v>5</v>
+      <c r="A14" s="23">
+        <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="35"/>
-      <c r="F14" s="36"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="49"/>
+      <c r="A15" s="24"/>
     </row>
     <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
@@ -1453,41 +1507,44 @@
       <c r="F16" s="10"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="25" t="s">
+      <c r="B17" s="35" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="27" t="s">
+      <c r="C17" s="37" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="23" t="s">
+      <c r="D17" s="25" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="23"/>
-      <c r="F17" s="29" t="s">
+      <c r="E17" s="25"/>
+      <c r="F17" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="29" t="s">
+      <c r="G17" s="27" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="36"/>
+      <c r="B18" s="36"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="I18" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1497,12 +1554,21 @@
       <c r="C19" s="21">
         <v>1</v>
       </c>
-      <c r="D19" s="11"/>
+      <c r="D19" s="11">
+        <v>5</v>
+      </c>
       <c r="E19" s="11"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="2"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F19" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G19" t="s">
+        <v>86</v>
+      </c>
+      <c r="I19" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -1512,12 +1578,21 @@
       <c r="C20" s="21">
         <v>2</v>
       </c>
-      <c r="D20" s="11"/>
+      <c r="D20" s="11">
+        <v>5</v>
+      </c>
       <c r="E20" s="11"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="2"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F20" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="I20" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -1527,12 +1602,21 @@
       <c r="C21" s="21">
         <v>3</v>
       </c>
-      <c r="D21" s="11"/>
+      <c r="D21" s="11">
+        <v>6</v>
+      </c>
       <c r="E21" s="11"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="2"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F21" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G21" s="2" t="s">
+        <v>86</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -1542,12 +1626,21 @@
       <c r="C22" s="21">
         <v>3</v>
       </c>
-      <c r="D22" s="11"/>
+      <c r="D22" s="11">
+        <v>3</v>
+      </c>
       <c r="E22" s="11"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="2"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F22" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G22" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I22" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -1557,12 +1650,21 @@
       <c r="C23" s="21">
         <v>3</v>
       </c>
-      <c r="D23" s="11"/>
+      <c r="D23" s="11">
+        <v>4</v>
+      </c>
       <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="2"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F23" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G23" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I23" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
@@ -1572,12 +1674,21 @@
       <c r="C24" s="21">
         <v>3</v>
       </c>
-      <c r="D24" s="11"/>
+      <c r="D24" s="11">
+        <v>8</v>
+      </c>
       <c r="E24" s="11"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="2"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F24" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G24" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I24" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
@@ -1587,12 +1698,21 @@
       <c r="C25" s="21">
         <v>3</v>
       </c>
-      <c r="D25" s="11"/>
+      <c r="D25" s="11">
+        <v>2</v>
+      </c>
       <c r="E25" s="11"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="2"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F25" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G25" t="s">
+        <v>85</v>
+      </c>
+      <c r="I25" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
@@ -1602,12 +1722,21 @@
       <c r="C26" s="21">
         <v>3</v>
       </c>
-      <c r="D26" s="11"/>
+      <c r="D26" s="11">
+        <v>4</v>
+      </c>
       <c r="E26" s="11"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="2"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F26" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="G26" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="I26" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
@@ -1617,12 +1746,21 @@
       <c r="C27" s="21">
         <v>3</v>
       </c>
-      <c r="D27" s="11"/>
+      <c r="D27" s="11">
+        <v>5</v>
+      </c>
       <c r="E27" s="11"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="2"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F27" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G27" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="I27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
@@ -1632,12 +1770,18 @@
       <c r="C28" s="21">
         <v>2</v>
       </c>
-      <c r="D28" s="11"/>
+      <c r="D28" s="11">
+        <v>1</v>
+      </c>
       <c r="E28" s="11"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="2"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F28" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="G28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11</v>
       </c>
@@ -1647,12 +1791,18 @@
       <c r="C29" s="21">
         <v>4</v>
       </c>
-      <c r="D29" s="11"/>
+      <c r="D29" s="11">
+        <v>4</v>
+      </c>
       <c r="E29" s="11"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="2"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F29" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G29" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12</v>
       </c>
@@ -1662,12 +1812,18 @@
       <c r="C30" s="21">
         <v>4</v>
       </c>
-      <c r="D30" s="11"/>
+      <c r="D30" s="11">
+        <v>5</v>
+      </c>
       <c r="E30" s="11"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="2"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F30" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>13</v>
       </c>
@@ -1677,12 +1833,18 @@
       <c r="C31" s="21">
         <v>4</v>
       </c>
-      <c r="D31" s="11"/>
+      <c r="D31" s="11">
+        <v>6</v>
+      </c>
       <c r="E31" s="11"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="2"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F31" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G31" s="2" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>14</v>
       </c>
@@ -1692,10 +1854,16 @@
       <c r="C32" s="21">
         <v>6</v>
       </c>
-      <c r="D32" s="11"/>
+      <c r="D32" s="11">
+        <v>3</v>
+      </c>
       <c r="E32" s="11"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="2"/>
+      <c r="F32" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G32" s="2" t="s">
+        <v>87</v>
+      </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
@@ -1707,10 +1875,16 @@
       <c r="C33" s="21">
         <v>5</v>
       </c>
-      <c r="D33" s="11"/>
+      <c r="D33" s="11">
+        <v>10</v>
+      </c>
       <c r="E33" s="11"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="2"/>
+      <c r="F33" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G33" t="s">
+        <v>85</v>
+      </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
@@ -1722,10 +1896,16 @@
       <c r="C34" s="21">
         <v>5</v>
       </c>
-      <c r="D34" s="11"/>
+      <c r="D34" s="11">
+        <v>5</v>
+      </c>
       <c r="E34" s="11"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="2"/>
+      <c r="F34" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G34" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
@@ -1737,10 +1917,16 @@
       <c r="C35" s="21">
         <v>5</v>
       </c>
-      <c r="D35" s="11"/>
+      <c r="D35" s="11">
+        <v>6</v>
+      </c>
       <c r="E35" s="11"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="2"/>
+      <c r="F35" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G35" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
@@ -1752,10 +1938,16 @@
       <c r="C36" s="21">
         <v>6</v>
       </c>
-      <c r="D36" s="11"/>
+      <c r="D36" s="11">
+        <v>4</v>
+      </c>
       <c r="E36" s="11"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="2"/>
+      <c r="F36" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G36" s="2" t="s">
+        <v>88</v>
+      </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
@@ -1767,10 +1959,16 @@
       <c r="C37" s="21">
         <v>6</v>
       </c>
-      <c r="D37" s="11"/>
+      <c r="D37" s="11">
+        <v>8</v>
+      </c>
       <c r="E37" s="11"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="2"/>
+      <c r="F37" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G37" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
@@ -1782,10 +1980,16 @@
       <c r="C38" s="21">
         <v>6</v>
       </c>
-      <c r="D38" s="11"/>
+      <c r="D38" s="11">
+        <v>8</v>
+      </c>
       <c r="E38" s="11"/>
-      <c r="F38" s="11"/>
-      <c r="G38" s="2"/>
+      <c r="F38" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
@@ -1797,10 +2001,16 @@
       <c r="C39" s="21">
         <v>3</v>
       </c>
-      <c r="D39" s="11"/>
+      <c r="D39" s="11">
+        <v>6</v>
+      </c>
       <c r="E39" s="11"/>
-      <c r="F39" s="11"/>
-      <c r="G39" s="2"/>
+      <c r="F39" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
@@ -1812,10 +2022,16 @@
       <c r="C40" s="21">
         <v>3</v>
       </c>
-      <c r="D40" s="11"/>
+      <c r="D40" s="11">
+        <v>3</v>
+      </c>
       <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="G40" s="2"/>
+      <c r="F40" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G40" s="2" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
@@ -1827,10 +2043,16 @@
       <c r="C41" s="21">
         <v>3</v>
       </c>
-      <c r="D41" s="11"/>
+      <c r="D41" s="11">
+        <v>6</v>
+      </c>
       <c r="E41" s="11"/>
-      <c r="F41" s="11"/>
-      <c r="G41" s="2"/>
+      <c r="F41" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G41" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
@@ -1842,10 +2064,16 @@
       <c r="C42" s="22">
         <v>4</v>
       </c>
-      <c r="D42" s="11"/>
+      <c r="D42" s="11">
+        <v>4</v>
+      </c>
       <c r="E42" s="11"/>
-      <c r="F42" s="11"/>
-      <c r="G42" s="2"/>
+      <c r="F42" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G42" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
@@ -1857,10 +2085,16 @@
       <c r="C43" s="22">
         <v>4</v>
       </c>
-      <c r="D43" s="11"/>
+      <c r="D43" s="11">
+        <v>3</v>
+      </c>
       <c r="E43" s="11"/>
-      <c r="F43" s="11"/>
-      <c r="G43" s="2"/>
+      <c r="F43" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G43" t="s">
+        <v>92</v>
+      </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
@@ -1872,10 +2106,16 @@
       <c r="C44" s="22">
         <v>4</v>
       </c>
-      <c r="D44" s="11"/>
+      <c r="D44" s="11">
+        <v>6</v>
+      </c>
       <c r="E44" s="11"/>
-      <c r="F44" s="11"/>
-      <c r="G44" s="2"/>
+      <c r="F44" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="G44" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
@@ -1937,6 +2177,11 @@
     </row>
   </sheetData>
   <mergeCells count="13">
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C8:F8"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
@@ -1945,11 +2190,6 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2017,12 +2257,12 @@
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="42" t="s">
+      <c r="C8" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="43"/>
-      <c r="E8" s="43"/>
-      <c r="F8" s="44"/>
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+      <c r="F8" s="46"/>
       <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
@@ -2030,19 +2270,19 @@
     <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="34"/>
-      <c r="D9" s="35"/>
-      <c r="E9" s="35"/>
-      <c r="F9" s="36"/>
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="31"/>
       <c r="G9" s="2"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="34"/>
-      <c r="D10" s="35"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="36"/>
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="31"/>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
@@ -2057,10 +2297,10 @@
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="35"/>
-      <c r="E12" s="35"/>
-      <c r="F12" s="36"/>
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="2"/>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
@@ -2069,38 +2309,38 @@
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="37" t="s">
+      <c r="B15" s="47" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="39" t="s">
+      <c r="C15" s="42" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="41"/>
-      <c r="F15" s="39" t="s">
+      <c r="E15" s="49"/>
+      <c r="F15" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="39" t="s">
+      <c r="G15" s="42" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="40"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="43"/>
       <c r="D16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40"/>
+      <c r="F16" s="43"/>
+      <c r="G16" s="43"/>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
@@ -2356,16 +2596,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:F16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>

--- a/Documentation/SCRUM_Backlogs.xlsx
+++ b/Documentation/SCRUM_Backlogs.xlsx
@@ -3,13 +3,13 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{737E3854-58A9-4AA7-B33F-FD5F33D59858}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE09255-7B42-4EAB-B91D-78C8B48297EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
-    <sheet name="Sprint 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Sprint 1 &amp; 2" sheetId="2" r:id="rId2"/>
     <sheet name="Sprint x (copy template!)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="95">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="193" uniqueCount="99">
   <si>
     <t>ID</t>
   </si>
@@ -302,9 +302,6 @@
     <t>leafcathead (Connor Peper), Ammar-Darwich</t>
   </si>
   <si>
-    <t>sameerkashif234, Ammar-Darwich</t>
-  </si>
-  <si>
     <t>Completed</t>
   </si>
   <si>
@@ -318,13 +315,28 @@
   </si>
   <si>
     <t>Git Users</t>
+  </si>
+  <si>
+    <t>jamous01, mucet95, sameerkashif234</t>
+  </si>
+  <si>
+    <t>jamous01, mucet95, sameerkashif234, Ammar-Darwich</t>
+  </si>
+  <si>
+    <t>jamous01, mucet95, leafcathead (Connor Peper), Ammar-Darwich</t>
+  </si>
+  <si>
+    <t>Sprint 1 &amp; 2</t>
+  </si>
+  <si>
+    <t>Remark: We compined Sprint 1 and Sprint 2 because Sprint 1 was amature.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -344,6 +356,14 @@
       <b/>
       <sz val="14"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -470,7 +490,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -611,6 +631,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -921,17 +942,17 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="74.109375" style="8" customWidth="1"/>
+    <col min="2" max="2" width="74.1328125" style="8" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="5" width="11.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.86328125" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A1" s="26" t="s">
         <v>0</v>
       </c>
@@ -952,7 +973,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A2" s="26"/>
       <c r="B2" s="25"/>
       <c r="C2" s="26"/>
@@ -965,7 +986,7 @@
       <c r="F2" s="26"/>
       <c r="G2" s="25"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -982,7 +1003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -999,7 +1020,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1016,7 +1037,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1033,7 +1054,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1050,7 +1071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1067,7 +1088,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1084,7 +1105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1101,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1118,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1135,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1152,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1169,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1186,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1203,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1220,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1237,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1254,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1271,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1288,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
       <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1297,7 +1318,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
       <c r="B29" s="8" t="s">
         <v>21</v>
       </c>
@@ -1320,48 +1341,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="82" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B53" sqref="B53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="132.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" style="22" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.46484375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
-        <v>9</v>
+        <v>97</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7">
-        <v>43412</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44837</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7">
-        <v>43432</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>44883</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1369,12 +1390,12 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
@@ -1391,7 +1412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="23">
         <v>1</v>
       </c>
@@ -1408,7 +1429,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A10" s="23">
         <v>2</v>
       </c>
@@ -1425,7 +1446,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="23">
         <v>3</v>
       </c>
@@ -1442,7 +1463,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A12" s="23">
         <v>4</v>
       </c>
@@ -1459,7 +1480,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A13" s="23">
         <v>5</v>
       </c>
@@ -1476,7 +1497,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A14" s="23">
         <v>6</v>
       </c>
@@ -1493,10 +1514,10 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="24"/>
     </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1507,7 +1528,7 @@
       <c r="F16" s="10"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
       <c r="A17" s="35" t="s">
         <v>0</v>
       </c>
@@ -1528,7 +1549,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A18" s="36"/>
       <c r="B18" s="36"/>
       <c r="C18" s="38"/>
@@ -1541,10 +1562,10 @@
       <c r="F18" s="28"/>
       <c r="G18" s="28"/>
       <c r="I18" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1559,7 +1580,7 @@
       </c>
       <c r="E19" s="11"/>
       <c r="F19" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G19" t="s">
         <v>86</v>
@@ -1568,7 +1589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -1583,7 +1604,7 @@
       </c>
       <c r="E20" s="11"/>
       <c r="F20" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G20" t="s">
         <v>86</v>
@@ -1592,7 +1613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -1607,7 +1628,7 @@
       </c>
       <c r="E21" s="11"/>
       <c r="F21" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>86</v>
@@ -1616,7 +1637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -1631,7 +1652,7 @@
       </c>
       <c r="E22" s="11"/>
       <c r="F22" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G22" s="2" t="s">
         <v>83</v>
@@ -1640,7 +1661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -1655,7 +1676,7 @@
       </c>
       <c r="E23" s="11"/>
       <c r="F23" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G23" s="2" t="s">
         <v>83</v>
@@ -1664,7 +1685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A24" s="3">
         <v>6</v>
       </c>
@@ -1688,7 +1709,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A25" s="3">
         <v>7</v>
       </c>
@@ -1706,13 +1727,13 @@
         <v>76</v>
       </c>
       <c r="G25" t="s">
-        <v>85</v>
+        <v>94</v>
       </c>
       <c r="I25" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26" s="3">
         <v>8</v>
       </c>
@@ -1727,7 +1748,7 @@
       </c>
       <c r="E26" s="11"/>
       <c r="F26" s="11" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G26" s="2" t="s">
         <v>83</v>
@@ -1736,7 +1757,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A27" s="3">
         <v>9</v>
       </c>
@@ -1760,7 +1781,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A28" s="3">
         <v>10</v>
       </c>
@@ -1778,10 +1799,10 @@
         <v>76</v>
       </c>
       <c r="G28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29" s="3">
         <v>11</v>
       </c>
@@ -1799,10 +1820,10 @@
         <v>73</v>
       </c>
       <c r="G29" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A30" s="3">
         <v>12</v>
       </c>
@@ -1820,10 +1841,10 @@
         <v>73</v>
       </c>
       <c r="G30" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A31" s="3">
         <v>13</v>
       </c>
@@ -1844,7 +1865,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32" s="3">
         <v>14</v>
       </c>
@@ -1865,7 +1886,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="3">
         <v>15</v>
       </c>
@@ -1883,10 +1904,10 @@
         <v>73</v>
       </c>
       <c r="G33" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3">
         <v>16</v>
       </c>
@@ -1907,7 +1928,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="3">
         <v>17</v>
       </c>
@@ -1928,7 +1949,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3">
         <v>18</v>
       </c>
@@ -1946,10 +1967,10 @@
         <v>73</v>
       </c>
       <c r="G36" s="2" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3">
         <v>19</v>
       </c>
@@ -1967,10 +1988,10 @@
         <v>73</v>
       </c>
       <c r="G37" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3">
         <v>20</v>
       </c>
@@ -1988,10 +2009,10 @@
         <v>73</v>
       </c>
       <c r="G38" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3">
         <v>21</v>
       </c>
@@ -2012,7 +2033,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3">
         <v>22</v>
       </c>
@@ -2030,10 +2051,10 @@
         <v>73</v>
       </c>
       <c r="G40" s="2" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="3">
         <v>23</v>
       </c>
@@ -2054,7 +2075,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -2072,10 +2093,10 @@
         <v>73</v>
       </c>
       <c r="G42" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3">
         <v>25</v>
       </c>
@@ -2093,10 +2114,10 @@
         <v>73</v>
       </c>
       <c r="G43" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3">
         <v>26</v>
       </c>
@@ -2117,7 +2138,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A45" s="3">
         <v>27</v>
       </c>
@@ -2128,7 +2149,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A46" s="3">
         <v>28</v>
       </c>
@@ -2139,40 +2160,43 @@
       <c r="F46" s="11"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A47" s="20"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A48" s="20"/>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" s="50" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A49" s="20"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A50" s="20"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A51" s="20"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A52" s="20"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A53" s="20"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A54" s="20"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A55" s="20"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A56" s="20"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A57" s="20"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A58" s="20"/>
     </row>
   </sheetData>
@@ -2200,44 +2224,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.88671875" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.86328125" style="10" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.88671875" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.44140625" style="10" customWidth="1"/>
-    <col min="7" max="7" width="29.44140625" customWidth="1"/>
+    <col min="5" max="5" width="14.86328125" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.46484375" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.46484375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2245,12 +2269,12 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
@@ -2267,7 +2291,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
       <c r="C9" s="29"/>
@@ -2276,7 +2300,7 @@
       <c r="F9" s="31"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="29"/>
@@ -2285,7 +2309,7 @@
       <c r="F10" s="31"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="13"/>
@@ -2294,7 +2318,7 @@
       <c r="F11" s="12"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="29"/>
@@ -2303,12 +2327,12 @@
       <c r="F12" s="31"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A15" s="47" t="s">
         <v>0</v>
       </c>
@@ -2329,7 +2353,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A16" s="48"/>
       <c r="B16" s="48"/>
       <c r="C16" s="43"/>
@@ -2342,7 +2366,7 @@
       <c r="F16" s="43"/>
       <c r="G16" s="43"/>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="11"/>
@@ -2351,7 +2375,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="11"/>
@@ -2360,7 +2384,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="11"/>
@@ -2369,7 +2393,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="11"/>
@@ -2378,7 +2402,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="11"/>
@@ -2387,7 +2411,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="11"/>
@@ -2396,7 +2420,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11"/>
@@ -2405,7 +2429,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="11"/>
@@ -2414,7 +2438,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="11"/>
@@ -2423,7 +2447,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="11"/>
@@ -2432,7 +2456,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="11"/>
@@ -2441,7 +2465,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="11"/>
@@ -2450,7 +2474,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="11"/>
@@ -2459,7 +2483,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11"/>
@@ -2468,7 +2492,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="11"/>
@@ -2477,7 +2501,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="11"/>
@@ -2486,7 +2510,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="11"/>
@@ -2495,7 +2519,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="11"/>
@@ -2504,7 +2528,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="11"/>
@@ -2513,7 +2537,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="11"/>
@@ -2522,7 +2546,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="11"/>
@@ -2531,7 +2555,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="11"/>
@@ -2540,7 +2564,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="11"/>
@@ -2549,7 +2573,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="11"/>
@@ -2558,7 +2582,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="11"/>
@@ -2567,7 +2591,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="11"/>
@@ -2576,7 +2600,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="11"/>
@@ -2585,7 +2609,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="11"/>

--- a/Documentation/SCRUM_Backlogs.xlsx
+++ b/Documentation/SCRUM_Backlogs.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25629"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9EE09255-7B42-4EAB-B91D-78C8B48297EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C06F7981-6B04-4F2B-9B2E-B3AED0E1ABDE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15675" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2664" yWindow="2124" windowWidth="17472" windowHeight="9876" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Product Backlog" sheetId="1" r:id="rId1"/>
@@ -556,6 +556,7 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -563,11 +564,32 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -586,26 +608,11 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -613,6 +620,9 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -622,16 +632,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -942,51 +942,51 @@
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="5.33203125" style="3" customWidth="1"/>
-    <col min="2" max="2" width="74.1328125" style="8" customWidth="1"/>
+    <col min="2" max="2" width="74.109375" style="8" customWidth="1"/>
     <col min="3" max="3" width="12" style="2" customWidth="1"/>
     <col min="4" max="5" width="11.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="9.86328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.88671875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="49.6640625" style="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A1" s="26" t="s">
+    <row r="1" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="27" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="25" t="s">
+      <c r="B1" s="26" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="26" t="s">
+      <c r="C1" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="26" t="s">
+      <c r="D1" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26" t="s">
+      <c r="E1" s="27"/>
+      <c r="F1" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="G1" s="25" t="s">
+      <c r="G1" s="26" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A2" s="26"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="26"/>
+    <row r="2" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="27"/>
+      <c r="B2" s="26"/>
+      <c r="C2" s="27"/>
       <c r="D2" s="17" t="s">
         <v>15</v>
       </c>
       <c r="E2" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="26"/>
-      <c r="G2" s="25"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F2" s="27"/>
+      <c r="G2" s="26"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="3">
         <v>1</v>
       </c>
@@ -1003,7 +1003,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="3">
         <v>2</v>
       </c>
@@ -1020,7 +1020,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="3">
         <v>3</v>
       </c>
@@ -1037,7 +1037,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>4</v>
       </c>
@@ -1054,7 +1054,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="3">
         <v>5</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="3">
         <v>6</v>
       </c>
@@ -1088,7 +1088,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="3">
         <v>7</v>
       </c>
@@ -1105,7 +1105,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="3">
         <v>8</v>
       </c>
@@ -1122,7 +1122,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="3">
         <v>9</v>
       </c>
@@ -1139,7 +1139,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="3">
         <v>10</v>
       </c>
@@ -1156,7 +1156,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="3">
         <v>11</v>
       </c>
@@ -1173,7 +1173,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="3">
         <v>12</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="3">
         <v>13</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="3">
         <v>14</v>
       </c>
@@ -1224,7 +1224,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="3">
         <v>15</v>
       </c>
@@ -1241,7 +1241,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" ht="28.5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="3">
         <v>16</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>17</v>
       </c>
@@ -1275,7 +1275,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>18</v>
       </c>
@@ -1292,7 +1292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>19</v>
       </c>
@@ -1309,7 +1309,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="C23" s="2" t="s">
         <v>40</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>706</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B29" s="8" t="s">
         <v>21</v>
       </c>
@@ -1341,32 +1341,32 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:I58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B53" sqref="B53"/>
+    <sheetView tabSelected="1" topLeftCell="C18" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="132.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" style="22" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="22" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.46484375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="29.46484375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>44837</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -1390,134 +1390,134 @@
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" s="5" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="39" t="s">
+      <c r="C8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="40"/>
-      <c r="E8" s="40"/>
-      <c r="F8" s="41"/>
+      <c r="D8" s="35"/>
+      <c r="E8" s="35"/>
+      <c r="F8" s="36"/>
       <c r="G8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="23">
         <v>1</v>
       </c>
       <c r="B9" s="8" t="s">
         <v>22</v>
       </c>
-      <c r="C9" s="29" t="s">
+      <c r="C9" s="37" t="s">
         <v>67</v>
       </c>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A10" s="23">
         <v>2</v>
       </c>
       <c r="B10" s="8" t="s">
         <v>38</v>
       </c>
-      <c r="C10" s="29" t="s">
+      <c r="C10" s="37" t="s">
         <v>68</v>
       </c>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>3</v>
       </c>
       <c r="B11" s="8" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="40" t="s">
         <v>69</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="42"/>
       <c r="G11" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <v>4</v>
       </c>
       <c r="B12" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="40" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="D12" s="41"/>
+      <c r="E12" s="41"/>
+      <c r="F12" s="42"/>
       <c r="G12" s="2" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A13" s="23">
         <v>5</v>
       </c>
       <c r="B13" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="40" t="s">
         <v>72</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="42"/>
       <c r="G13" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A14" s="23">
         <v>6</v>
       </c>
       <c r="B14" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="37" t="s">
         <v>74</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
+      <c r="D14" s="38"/>
+      <c r="E14" s="38"/>
+      <c r="F14" s="39"/>
       <c r="G14" s="2" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="24"/>
     </row>
-    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="5" t="s">
         <v>14</v>
       </c>
@@ -1528,44 +1528,44 @@
       <c r="F16" s="10"/>
       <c r="G16"/>
     </row>
-    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.45">
-      <c r="A17" s="35" t="s">
+    <row r="17" spans="1:9" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
         <v>0</v>
       </c>
-      <c r="B17" s="35" t="s">
+      <c r="B17" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C17" s="37" t="s">
+      <c r="C17" s="30" t="s">
         <v>16</v>
       </c>
-      <c r="D17" s="25" t="s">
+      <c r="D17" s="26" t="s">
         <v>17</v>
       </c>
-      <c r="E17" s="25"/>
-      <c r="F17" s="27" t="s">
+      <c r="E17" s="26"/>
+      <c r="F17" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="G17" s="27" t="s">
+      <c r="G17" s="32" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A18" s="36"/>
-      <c r="B18" s="36"/>
-      <c r="C18" s="38"/>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
+      <c r="C18" s="31"/>
       <c r="D18" s="19" t="s">
         <v>15</v>
       </c>
       <c r="E18" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
+      <c r="F18" s="33"/>
+      <c r="G18" s="33"/>
       <c r="I18" t="s">
         <v>93</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="3">
         <v>1</v>
       </c>
@@ -1589,7 +1589,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="3">
         <v>2</v>
       </c>
@@ -1613,7 +1613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="3">
         <v>3</v>
       </c>
@@ -1637,7 +1637,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="3">
         <v>4</v>
       </c>
@@ -1661,7 +1661,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="3">
         <v>5</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="3">
         <v>6</v>
       </c>
@@ -1696,11 +1696,13 @@
         <v>3</v>
       </c>
       <c r="D24" s="11">
-        <v>8</v>
-      </c>
-      <c r="E24" s="11"/>
+        <v>4</v>
+      </c>
+      <c r="E24" s="11">
+        <v>2</v>
+      </c>
       <c r="F24" s="11" t="s">
-        <v>76</v>
+        <v>89</v>
       </c>
       <c r="G24" s="2" t="s">
         <v>83</v>
@@ -1709,7 +1711,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="3">
         <v>7</v>
       </c>
@@ -1733,7 +1735,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="3">
         <v>8</v>
       </c>
@@ -1746,7 +1748,9 @@
       <c r="D26" s="11">
         <v>4</v>
       </c>
-      <c r="E26" s="11"/>
+      <c r="E26" s="11">
+        <v>5</v>
+      </c>
       <c r="F26" s="11" t="s">
         <v>89</v>
       </c>
@@ -1757,7 +1761,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>9</v>
       </c>
@@ -1781,7 +1785,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="3">
         <v>10</v>
       </c>
@@ -1802,7 +1806,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="3">
         <v>11</v>
       </c>
@@ -1823,7 +1827,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>12</v>
       </c>
@@ -1844,7 +1848,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="3">
         <v>13</v>
       </c>
@@ -1865,7 +1869,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="3">
         <v>14</v>
       </c>
@@ -1886,7 +1890,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3">
         <v>15</v>
       </c>
@@ -1907,7 +1911,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3">
         <v>16</v>
       </c>
@@ -1928,7 +1932,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3">
         <v>17</v>
       </c>
@@ -1949,7 +1953,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3">
         <v>18</v>
       </c>
@@ -1970,7 +1974,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3">
         <v>19</v>
       </c>
@@ -1991,7 +1995,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3">
         <v>20</v>
       </c>
@@ -2012,7 +2016,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3">
         <v>21</v>
       </c>
@@ -2033,7 +2037,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3">
         <v>22</v>
       </c>
@@ -2054,7 +2058,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3">
         <v>23</v>
       </c>
@@ -2075,7 +2079,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3">
         <v>24</v>
       </c>
@@ -2096,7 +2100,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3">
         <v>25</v>
       </c>
@@ -2117,7 +2121,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3">
         <v>26</v>
       </c>
@@ -2138,7 +2142,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="3">
         <v>27</v>
       </c>
@@ -2149,7 +2153,7 @@
       <c r="F45" s="11"/>
       <c r="G45" s="2"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="3">
         <v>28</v>
       </c>
@@ -2160,52 +2164,47 @@
       <c r="F46" s="11"/>
       <c r="G46" s="2"/>
     </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="20"/>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="20"/>
-      <c r="B48" s="50" t="s">
+      <c r="B48" s="25" t="s">
         <v>98</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" s="20"/>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" s="20"/>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" s="20"/>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" s="20"/>
     </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A53" s="20"/>
     </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A54" s="20"/>
     </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A55" s="20"/>
     </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A56" s="20"/>
     </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A57" s="20"/>
     </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A58" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="13">
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="F17:F18"/>
-    <mergeCell ref="C8:F8"/>
     <mergeCell ref="G17:G18"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
@@ -2214,6 +2213,11 @@
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C13:F13"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="F17:F18"/>
+    <mergeCell ref="C8:F8"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -2228,40 +2232,40 @@
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.53125" defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="14.33203125" customWidth="1"/>
     <col min="2" max="2" width="50.33203125" customWidth="1"/>
-    <col min="3" max="3" width="13.86328125" style="10" customWidth="1"/>
+    <col min="3" max="3" width="13.88671875" style="10" customWidth="1"/>
     <col min="4" max="4" width="14.6640625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="14.86328125" style="10" customWidth="1"/>
-    <col min="6" max="6" width="17.46484375" style="10" customWidth="1"/>
-    <col min="7" max="7" width="29.46484375" customWidth="1"/>
+    <col min="5" max="5" width="14.88671875" style="10" customWidth="1"/>
+    <col min="6" max="6" width="17.44140625" style="10" customWidth="1"/>
+    <col min="7" max="7" width="29.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>9</v>
       </c>
       <c r="B1" s="1"/>
     </row>
-    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:7" ht="18" x14ac:dyDescent="0.35">
       <c r="A2" s="6"/>
       <c r="B2" s="1"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="5" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="7"/>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>8</v>
       </c>
       <c r="B4" s="7"/>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="5" t="s">
         <v>10</v>
       </c>
@@ -2269,47 +2273,47 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="5" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A8" s="15" t="s">
         <v>0</v>
       </c>
       <c r="B8" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="44" t="s">
+      <c r="C8" s="48" t="s">
         <v>12</v>
       </c>
-      <c r="D8" s="45"/>
-      <c r="E8" s="45"/>
-      <c r="F8" s="46"/>
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="50"/>
       <c r="G8" s="15" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A9" s="9"/>
       <c r="B9" s="8"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="31"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="38"/>
+      <c r="E9" s="38"/>
+      <c r="F9" s="39"/>
       <c r="G9" s="2"/>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
+      <c r="C10" s="37"/>
+      <c r="D10" s="38"/>
+      <c r="E10" s="38"/>
+      <c r="F10" s="39"/>
       <c r="G10" s="2"/>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="13"/>
@@ -2318,55 +2322,55 @@
       <c r="F11" s="12"/>
       <c r="G11" s="2"/>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="C12" s="37"/>
+      <c r="D12" s="38"/>
+      <c r="E12" s="38"/>
+      <c r="F12" s="39"/>
       <c r="G12" s="2"/>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="5" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A15" s="47" t="s">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15" s="43" t="s">
         <v>0</v>
       </c>
-      <c r="B15" s="47" t="s">
+      <c r="B15" s="43" t="s">
         <v>1</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="D15" s="47" t="s">
         <v>17</v>
       </c>
-      <c r="E15" s="49"/>
-      <c r="F15" s="42" t="s">
+      <c r="E15" s="47"/>
+      <c r="F15" s="45" t="s">
         <v>3</v>
       </c>
-      <c r="G15" s="42" t="s">
+      <c r="G15" s="45" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="43"/>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16" s="44"/>
+      <c r="B16" s="44"/>
+      <c r="C16" s="46"/>
       <c r="D16" s="16" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="16" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="43"/>
-      <c r="G16" s="43"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+      <c r="F16" s="46"/>
+      <c r="G16" s="46"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="3"/>
       <c r="B17" s="2"/>
       <c r="C17" s="11"/>
@@ -2375,7 +2379,7 @@
       <c r="F17" s="11"/>
       <c r="G17" s="2"/>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="3"/>
       <c r="B18" s="2"/>
       <c r="C18" s="11"/>
@@ -2384,7 +2388,7 @@
       <c r="F18" s="11"/>
       <c r="G18" s="2"/>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="3"/>
       <c r="B19" s="2"/>
       <c r="C19" s="11"/>
@@ -2393,7 +2397,7 @@
       <c r="F19" s="11"/>
       <c r="G19" s="2"/>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="3"/>
       <c r="B20" s="2"/>
       <c r="C20" s="11"/>
@@ -2402,7 +2406,7 @@
       <c r="F20" s="11"/>
       <c r="G20" s="2"/>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="3"/>
       <c r="B21" s="2"/>
       <c r="C21" s="11"/>
@@ -2411,7 +2415,7 @@
       <c r="F21" s="11"/>
       <c r="G21" s="2"/>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="2"/>
       <c r="C22" s="11"/>
@@ -2420,7 +2424,7 @@
       <c r="F22" s="11"/>
       <c r="G22" s="2"/>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="3"/>
       <c r="B23" s="2"/>
       <c r="C23" s="11"/>
@@ -2429,7 +2433,7 @@
       <c r="F23" s="11"/>
       <c r="G23" s="2"/>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="3"/>
       <c r="B24" s="2"/>
       <c r="C24" s="11"/>
@@ -2438,7 +2442,7 @@
       <c r="F24" s="11"/>
       <c r="G24" s="2"/>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="3"/>
       <c r="B25" s="2"/>
       <c r="C25" s="11"/>
@@ -2447,7 +2451,7 @@
       <c r="F25" s="11"/>
       <c r="G25" s="2"/>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="3"/>
       <c r="B26" s="2"/>
       <c r="C26" s="11"/>
@@ -2456,7 +2460,7 @@
       <c r="F26" s="11"/>
       <c r="G26" s="2"/>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="3"/>
       <c r="B27" s="2"/>
       <c r="C27" s="11"/>
@@ -2465,7 +2469,7 @@
       <c r="F27" s="11"/>
       <c r="G27" s="2"/>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="3"/>
       <c r="B28" s="2"/>
       <c r="C28" s="11"/>
@@ -2474,7 +2478,7 @@
       <c r="F28" s="11"/>
       <c r="G28" s="2"/>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="3"/>
       <c r="B29" s="2"/>
       <c r="C29" s="11"/>
@@ -2483,7 +2487,7 @@
       <c r="F29" s="11"/>
       <c r="G29" s="2"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="3"/>
       <c r="B30" s="2"/>
       <c r="C30" s="11"/>
@@ -2492,7 +2496,7 @@
       <c r="F30" s="11"/>
       <c r="G30" s="2"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="3"/>
       <c r="B31" s="2"/>
       <c r="C31" s="11"/>
@@ -2501,7 +2505,7 @@
       <c r="F31" s="11"/>
       <c r="G31" s="2"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="3"/>
       <c r="B32" s="2"/>
       <c r="C32" s="11"/>
@@ -2510,7 +2514,7 @@
       <c r="F32" s="11"/>
       <c r="G32" s="2"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="3"/>
       <c r="B33" s="2"/>
       <c r="C33" s="11"/>
@@ -2519,7 +2523,7 @@
       <c r="F33" s="11"/>
       <c r="G33" s="2"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="3"/>
       <c r="B34" s="2"/>
       <c r="C34" s="11"/>
@@ -2528,7 +2532,7 @@
       <c r="F34" s="11"/>
       <c r="G34" s="2"/>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="3"/>
       <c r="B35" s="2"/>
       <c r="C35" s="11"/>
@@ -2537,7 +2541,7 @@
       <c r="F35" s="11"/>
       <c r="G35" s="2"/>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="3"/>
       <c r="B36" s="2"/>
       <c r="C36" s="11"/>
@@ -2546,7 +2550,7 @@
       <c r="F36" s="11"/>
       <c r="G36" s="2"/>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="3"/>
       <c r="B37" s="2"/>
       <c r="C37" s="11"/>
@@ -2555,7 +2559,7 @@
       <c r="F37" s="11"/>
       <c r="G37" s="2"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="3"/>
       <c r="B38" s="2"/>
       <c r="C38" s="11"/>
@@ -2564,7 +2568,7 @@
       <c r="F38" s="11"/>
       <c r="G38" s="2"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="3"/>
       <c r="B39" s="2"/>
       <c r="C39" s="11"/>
@@ -2573,7 +2577,7 @@
       <c r="F39" s="11"/>
       <c r="G39" s="2"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="3"/>
       <c r="B40" s="2"/>
       <c r="C40" s="11"/>
@@ -2582,7 +2586,7 @@
       <c r="F40" s="11"/>
       <c r="G40" s="2"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="3"/>
       <c r="B41" s="2"/>
       <c r="C41" s="11"/>
@@ -2591,7 +2595,7 @@
       <c r="F41" s="11"/>
       <c r="G41" s="2"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="2"/>
       <c r="C42" s="11"/>
@@ -2600,7 +2604,7 @@
       <c r="F42" s="11"/>
       <c r="G42" s="2"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="B43" s="2"/>
       <c r="C43" s="11"/>
@@ -2609,7 +2613,7 @@
       <c r="F43" s="11"/>
       <c r="G43" s="2"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="2"/>
       <c r="C44" s="11"/>
@@ -2620,16 +2624,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="G15:G16"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
     <mergeCell ref="A15:A16"/>
     <mergeCell ref="B15:B16"/>
     <mergeCell ref="C15:C16"/>
     <mergeCell ref="D15:E15"/>
     <mergeCell ref="F15:F16"/>
-    <mergeCell ref="G15:G16"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
